--- a/config/important_receptor_names.xlsx
+++ b/config/important_receptor_names.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="991" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -22,19 +22,19 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
-    <t xml:space="preserve">&gt; Signaling of Hepatocyte Growth Factor Receptor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&gt; TGF-beta signaling pathway</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&gt; EGF Signaling Pathway</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&gt; EPO Signaling Pathway</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&gt; GAS6 Signaling Pathway</t>
+    <t xml:space="preserve">Signaling of Hepatocyte Growth Factor Receptor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TGF-beta signaling pathway</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> EGF Signaling Pathway</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EPO Signaling Pathway</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GAS6 Signaling Pathway</t>
   </si>
   <si>
     <t xml:space="preserve">MET</t>
@@ -240,20 +240,20 @@
   </sheetPr>
   <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14"/>
+  <sheetFormatPr defaultRowHeight="14" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.3886639676113"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="11.1417004048583"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="11.3562753036437"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="6.42914979757085"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="10.497975708502"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.78542510121457"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="11.36"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="9.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="6.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="8.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="10.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="8" style="0" width="8.79"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -304,7 +304,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
